--- a/src/P03_data_preprocess/S04_af_feature_selection.xlsx
+++ b/src/P03_data_preprocess/S04_af_feature_selection.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.8__ql_0.0</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_True__qh_1.0__ql_0.6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.0001575947787784741</v>
+        <v>0.0005601798547167488</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0004740552592566813</v>
+        <v>0.0006254657212972745</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -584,7 +584,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_True__qh_1.0__ql_0.6</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.8__ql_0.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.000529971618637213</v>
+        <v>0.0006607006533399372</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_59</t>
+          <t>Fz__partial_autocorrelation__lag_3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.004353695438089131</v>
+        <v>0.001902071479096739</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -630,7 +630,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_4</t>
+          <t>Fz__approximate_entropy__m_2__r_0.9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.007207193212490907</v>
+        <v>0.005244573508567938</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_71</t>
+          <t>Fz__agg_linear_trend__attr_"intercept"__chunk_len_5__f_agg_"var"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.007535852473584093</v>
+        <v>0.005244573508567938</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fz__partial_autocorrelation__lag_7</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.002625924821517928</v>
+        <v>0.00167333155339488</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -699,16 +699,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fz__symmetry_looking__r_0.05</t>
+          <t>Fz__partial_autocorrelation__lag_7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>real</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.007249114810078232</v>
+        <v>0.002625924821517928</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -717,21 +717,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AA5052_L5</t>
+          <t>AA5052_L4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.8</t>
+          <t>Fz__symmetry_looking__r_0.05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.009366862900830348</v>
+        <v>0.007249114810078232</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -745,7 +745,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.2__ql_0.0</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.01620634724123196</v>
+        <v>0.009782253843360974</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -763,12 +763,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AA5052_L6</t>
+          <t>AA5052_L5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_4</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_88</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0002471783845614846</v>
+        <v>0.0198289205703926</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fz__binned_entropy__max_bins_10</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.004454416399059311</v>
+        <v>0.0002471783845614846</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_88</t>
+          <t>Fz__binned_entropy__max_bins_10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.006437668253049636</v>
+        <v>0.004454416399059311</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.001706812851192488</v>
+        <v>0.001157565439740933</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.003098926405411348</v>
+        <v>0.005094792689209648</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_11</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.002981361705102833</v>
+        <v>0.003530286219921019</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_64</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.01142256327549424</v>
+        <v>0.01004522913641859</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -929,7 +929,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_18</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.01191758514774078</v>
+        <v>0.01468893633869021</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.01296501981747289</v>
+        <v>0.01661180312087964</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"intercept"__chunk_len_5__f_agg_"var"</t>
+          <t>Fz__agg_linear_trend__attr_"intercept"__chunk_len_50__f_agg_"var"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.001081752153889779</v>
+        <v>0.001724188363429181</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -993,12 +993,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AA6061_L2</t>
+          <t>AA6061_L3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"intercept"__chunk_len_50__f_agg_"var"</t>
+          <t>Fz__ar_coefficient__coeff_6__k_10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.001724188363429181</v>
+        <v>0.004164753087534403</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fz__ar_coefficient__coeff_6__k_10</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_44</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.004164753087534403</v>
+        <v>0.004365306220028976</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_44</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_64</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.004365306220028976</v>
+        <v>0.005505561189002085</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1062,12 +1062,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AA6061_L3</t>
+          <t>AA6061_L4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_64</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_90</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.005505561189002085</v>
+        <v>0.001370139599701499</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1090,16 +1090,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_90</t>
+          <t>Fz__autocorrelation__lag_0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>binary</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.001370139599701499</v>
+        <v>0.007012151740231652</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1113,16 +1113,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fz__autocorrelation__lag_0</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_90</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>binary</t>
+          <t>real</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.007012151740231652</v>
+        <v>0.008079306167675679</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1131,12 +1131,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AA6061_L4</t>
+          <t>AA6061_L5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_90</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_61</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.008079306167675679</v>
+        <v>0.00397326903401083</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.002838174175750969</v>
+        <v>0.00397326903401083</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.003971257983754579</v>
+        <v>0.007894058736248896</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1200,12 +1200,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AA6061_L5</t>
+          <t>AA6061_L6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_61</t>
+          <t>Fz__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.004575328671051137</v>
+        <v>0.0001547401228083308</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.2</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.002449025034901465</v>
+        <v>0.0002632460448376393</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.004365306220028976</v>
+        <v>0.0002789610501183591</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1269,12 +1269,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AA6061_L6</t>
+          <t>AA6061_L7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.0</t>
+          <t>Fz__lempel_ziv_complexity__bins_2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.004574574900042678</v>
+        <v>0.0004781112443179355</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fz__lempel_ziv_complexity__bins_2</t>
+          <t>Fz__cwt_coefficients__coeff_0__w_2__widths_(2, 5, 10, 20)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.0009209829004615334</v>
+        <v>0.00102696416385162</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_50</t>
+          <t>Fz__change_quantiles__f_agg_"var"__isabs_True__qh_0.4__ql_0.2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.001639829153112802</v>
+        <v>0.001909497508138181</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1338,12 +1338,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AA6061_L7</t>
+          <t>AA6061_mean</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.4</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_68</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.002219360338241879</v>
+        <v>0.0191416019557915</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1361,12 +1361,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AA6061_mean</t>
+          <t>Center_L1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fz__cwt_coefficients__coeff_8__w_2__widths_(2, 5, 10, 20)</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_77</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0166178457214342</v>
+        <v>7.289907887909181e-05</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1384,12 +1384,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AA6061_mean</t>
+          <t>Center_L1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_68</t>
+          <t>Fz__fourier_entropy__bins_3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.02568719222781731</v>
+        <v>0.0002804287008748434</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_77</t>
+          <t>Fz__fourier_entropy__bins_2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7.289907887909181e-05</v>
+        <v>0.001502226221805815</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1430,12 +1430,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Center_L1</t>
+          <t>Center_L2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fz__fourier_entropy__bins_3</t>
+          <t>Fz__median</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.0002804287008748434</v>
+        <v>0.0007511075392957466</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1453,12 +1453,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Center_L1</t>
+          <t>Center_L2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fz__fourier_entropy__bins_2</t>
+          <t>Fz__energy_ratio_by_chunks__num_segments_10__segment_focus_0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.001502226221805815</v>
+        <v>0.0008368202674210378</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fz__median</t>
+          <t>Fz__index_mass_quantile__q_0.2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.0003251485727079693</v>
+        <v>0.0008824305501970593</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1499,12 +1499,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Center_L2</t>
+          <t>Center_L3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fz__quantile__q_0.4</t>
+          <t>Fz__approximate_entropy__m_2__r_0.7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1513,21 +1513,21 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0003858804658576176</v>
+        <v>1.075703590347801e-05</v>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Center_L2</t>
+          <t>Center_L3</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fz__quantile__q_0.2</t>
+          <t>Fz__autocorrelation__lag_2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.0004320911666442575</v>
+        <v>2.58691142707742e-05</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fz__approximate_entropy__m_2__r_0.7</t>
+          <t>Fz__partial_autocorrelation__lag_1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.075703590347801e-05</v>
+        <v>2.763412677119596e-05</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -1568,12 +1568,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Center_L3</t>
+          <t>Center_L4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fz__autocorrelation__lag_2</t>
+          <t>Fz__cwt_coefficients__coeff_0__w_5__widths_(2, 5, 10, 20)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1582,21 +1582,21 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2.58691142707742e-05</v>
+        <v>0.0070508786636347</v>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Center_L3</t>
+          <t>Center_L4</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fz__partial_autocorrelation__lag_1</t>
+          <t>Fz__spkt_welch_density__coeff_2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2.763412677119596e-05</v>
+        <v>0.0070508786636347</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fz__cwt_coefficients__coeff_0__w_5__widths_(2, 5, 10, 20)</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_66</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.0070508786636347</v>
+        <v>0.007710435211970307</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -1637,12 +1637,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Center_L4</t>
+          <t>Center_L5</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fz__spkt_welch_density__coeff_2</t>
+          <t>Fz__partial_autocorrelation__lag_6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0070508786636347</v>
+        <v>0.00925577906668543</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -1660,12 +1660,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Center_L4</t>
+          <t>Center_L5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_66</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_87</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.007710435211970307</v>
+        <v>0.01418824903613119</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_87</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_96</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.007418311601869386</v>
+        <v>0.01673573283507488</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1706,12 +1706,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Center_L5</t>
+          <t>Center_L6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_58</t>
+          <t>Fz__cwt_coefficients__coeff_8__w_2__widths_(2, 5, 10, 20)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.008858710323673007</v>
+        <v>0.004151141058699148</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -1729,12 +1729,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Center_L5</t>
+          <t>Center_L6</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fz__partial_autocorrelation__lag_6</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_97</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.009668654102366905</v>
+        <v>0.005244810696708318</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_97</t>
+          <t>Fz__augmented_dickey_fuller__attr_"pvalue"__autolag_"AIC"</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.005244810696708318</v>
+        <v>0.009821730920017768</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -1775,12 +1775,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Center_L6</t>
+          <t>Center_L7</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fz__augmented_dickey_fuller__attr_"pvalue"__autolag_"AIC"</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_35</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.009821730920017768</v>
+        <v>0.003131933972617867</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_35</t>
+          <t>Fz__change_quantiles__f_agg_"var"__isabs_True__qh_1.0__ql_0.8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.003131933972617867</v>
+        <v>0.005528416913146648</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"var"__isabs_True__qh_1.0__ql_0.8</t>
+          <t>Fz__agg_linear_trend__attr_"slope"__chunk_len_5__f_agg_"var"</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.005528416913146648</v>
+        <v>0.006637089067891928</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -1844,12 +1844,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Center_L7</t>
+          <t>Center_mean</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"slope"__chunk_len_5__f_agg_"var"</t>
+          <t>Fz__cid_ce__normalize_True</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1858,55 +1858,9 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.006637089067891928</v>
+        <v>0.003430834773729841</v>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Center_mean</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Fz__approximate_entropy__m_2__r_0.9</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0.001998397802154677</v>
-      </c>
-      <c r="E63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Center_mean</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Fz__autocorrelation__lag_3</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0.003430834773729841</v>
-      </c>
-      <c r="E64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1921,7 +1875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2102,7 +2056,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.4</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2111,7 +2065,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.001016567771376136</v>
+        <v>0.003585447014640562</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -2125,7 +2079,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.4</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2134,7 +2088,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.001129821918117944</v>
+        <v>0.003585447014640562</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -2148,7 +2102,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.4__ql_0.2</t>
+          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_5__f_agg_"var"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2157,7 +2111,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.002092369764118166</v>
+        <v>0.005221915042798947</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -2171,7 +2125,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_5__f_agg_"var"</t>
+          <t>Fz__autocorrelation__lag_9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2180,7 +2134,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.002815614824431024</v>
+        <v>0.005992198142813723</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -2194,7 +2148,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fz__autocorrelation__lag_9</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.4__ql_0.2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2203,7 +2157,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.003943688391226576</v>
+        <v>0.007505791187366842</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -2217,7 +2171,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_55</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_91</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2226,7 +2180,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.006270850516564988</v>
+        <v>0.008570672117092641</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -2249,7 +2203,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.003961824951877491</v>
+        <v>0.0008714648913817694</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -2263,7 +2217,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.0</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2272,7 +2226,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.004353695438089131</v>
+        <v>0.001474001976375669</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -2286,7 +2240,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_6</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2295,7 +2249,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.006588202561195575</v>
+        <v>0.003961824951877491</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2304,12 +2258,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AA5052_L4</t>
+          <t>AA5052_L3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_4</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2318,7 +2272,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0008938273344641114</v>
+        <v>0.004153569005698668</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -2332,7 +2286,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_7</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2341,7 +2295,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0009428585297384907</v>
+        <v>0.0008938273344641114</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -2424,7 +2378,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_89</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_34</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2433,7 +2387,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.007858293875975413</v>
+        <v>0.01905248045240239</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2447,7 +2401,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fz__spkt_welch_density__coeff_5</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_71</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2456,7 +2410,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02607872431655809</v>
+        <v>0.01905248045240239</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2470,7 +2424,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_35</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_89</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2479,7 +2433,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.02815132125083995</v>
+        <v>0.0206328461120346</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2493,7 +2447,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.2__ql_0.0</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_87</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2502,7 +2456,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.03152582014077069</v>
+        <v>0.02232631779911478</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2516,7 +2470,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_34</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.2__ql_0.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2525,7 +2479,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.03152582014077069</v>
+        <v>0.02413937262299663</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2677,7 +2631,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"slope"__chunk_len_5__f_agg_"var"</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_70</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2686,7 +2640,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.004753096174501137</v>
+        <v>0.01584023143866478</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2700,7 +2654,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_39</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_54</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2709,7 +2663,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.007169556373942169</v>
+        <v>0.01650118546274881</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2723,7 +2677,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_95</t>
+          <t>Fz__agg_linear_trend__attr_"slope"__chunk_len_5__f_agg_"var"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2732,7 +2686,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.0106364545488869</v>
+        <v>0.01789612044610334</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -2746,7 +2700,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"slope"__chunk_len_10__f_agg_"var"</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_94</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2755,7 +2709,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.01110164646738361</v>
+        <v>0.01789612044610334</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2769,7 +2723,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_94</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_39</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2778,7 +2732,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.0115848241608318</v>
+        <v>0.02362394500753177</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -2792,7 +2746,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_7</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_55</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2801,7 +2755,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.01617070852755694</v>
+        <v>0.0275640083908113</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -2824,7 +2778,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.001480017086485521</v>
+        <v>0.00388320404354017</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -2833,12 +2787,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AA6061_L1</t>
+          <t>AA5052_mean</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fz__cwt_coefficients__coeff_12__w_2__widths_(2, 5, 10, 20)</t>
+          <t>Fz__agg_linear_trend__attr_"slope"__chunk_len_10__f_agg_"var"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2847,7 +2801,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01243153567059169</v>
+        <v>0.008821572723061437</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2861,7 +2815,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"var"__isabs_False__qh_0.6__ql_0.4</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2870,7 +2824,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.01875228636525252</v>
+        <v>0.01004522913641859</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2884,7 +2838,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_16</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_65</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2893,7 +2847,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.01875228636525252</v>
+        <v>0.01048695549086631</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -2907,7 +2861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_4</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_65</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2916,7 +2870,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01951753772386178</v>
+        <v>0.01296501981747289</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -2939,7 +2893,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.02030993034254016</v>
+        <v>0.01351865669027675</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -2948,12 +2902,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AA6061_L2</t>
+          <t>AA6061_L1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_81</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2962,7 +2916,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.008623710257221624</v>
+        <v>0.01351865669027675</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -2971,12 +2925,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AA6061_L2</t>
+          <t>AA6061_L1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_75</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_64</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2985,7 +2939,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.02518207184645186</v>
+        <v>0.01594761411172372</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -2999,7 +2953,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fz__partial_autocorrelation__lag_4</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_81</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3008,7 +2962,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.03407303690831687</v>
+        <v>0.008623710257221624</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -3022,7 +2976,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_64</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_55</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3031,7 +2985,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.04239087112887231</v>
+        <v>0.0169478071169164</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -3040,12 +2994,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AA6061_L3</t>
+          <t>AA6061_L2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_48</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_75</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3054,7 +3008,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.002837660251741805</v>
+        <v>0.02518207184645186</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -3063,12 +3017,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AA6061_L3</t>
+          <t>AA6061_L2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_71</t>
+          <t>Fz__partial_autocorrelation__lag_4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3077,7 +3031,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.004574574900042678</v>
+        <v>0.03407303690831687</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -3086,12 +3040,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AA6061_L3</t>
+          <t>AA6061_L2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"stderr"__chunk_len_50__f_agg_"var"</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_64</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3100,7 +3054,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.007553696054069181</v>
+        <v>0.04239087112887231</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -3114,7 +3068,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_85</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_48</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3123,7 +3077,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.008252863118556643</v>
+        <v>0.002837660251741805</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -3137,7 +3091,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_14</t>
+          <t>Fz__agg_linear_trend__attr_"stderr"__chunk_len_50__f_agg_"var"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3146,7 +3100,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.01026045272308284</v>
+        <v>0.007553696054069181</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -3155,12 +3109,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AA6061_L4</t>
+          <t>AA6061_L3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_29</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_85</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3169,7 +3123,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.008079306167675679</v>
+        <v>0.008252863118556643</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -3178,12 +3132,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AA6061_L4</t>
+          <t>AA6061_L3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fz__friedrich_coefficients__coeff_3__m_3__r_30</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3192,7 +3146,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.0146944604646642</v>
+        <v>0.01026045272308284</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -3206,7 +3160,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_29</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3215,7 +3169,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.01875888056371434</v>
+        <v>0.008079306167675679</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -3229,7 +3183,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_11</t>
+          <t>Fz__friedrich_coefficients__coeff_3__m_3__r_30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3238,7 +3192,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.01952432319339309</v>
+        <v>0.0146944604646642</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -3252,7 +3206,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fz__minimum</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3261,7 +3215,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.02113742327380485</v>
+        <v>0.01875888056371434</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -3270,12 +3224,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AA6061_L5</t>
+          <t>AA6061_L4</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_61</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3284,7 +3238,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.002702758858561818</v>
+        <v>0.01952432319339309</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -3293,12 +3247,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AA6061_L5</t>
+          <t>AA6061_L4</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_28</t>
+          <t>Fz__minimum</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3307,7 +3261,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.005506433632266774</v>
+        <v>0.02113742327380485</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -3321,7 +3275,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fz__energy_ratio_by_chunks__num_segments_10__segment_focus_5</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_61</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3330,7 +3284,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.006313497923199395</v>
+        <v>0.001724530184339831</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -3353,7 +3307,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.006605289055218633</v>
+        <v>0.004793671382326954</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -3362,12 +3316,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AA6061_L6</t>
+          <t>AA6061_L5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_74</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3376,7 +3330,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.01627177098019144</v>
+        <v>0.0126933177631061</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
@@ -3390,7 +3344,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_40</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_74</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3399,7 +3353,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.01627177098019144</v>
+        <v>0.01468157225029765</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -3413,7 +3367,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_76</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_84</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3422,7 +3376,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.03163009847601563</v>
+        <v>0.03222150414397356</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -3436,7 +3390,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"var"__isabs_True__qh_1.0__ql_0.2</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_90</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3445,7 +3399,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.03535382887809109</v>
+        <v>0.04015941273527604</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -3454,12 +3408,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AA6061_L7</t>
+          <t>AA6061_L6</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_29</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_40</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3468,7 +3422,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.02519289621167635</v>
+        <v>0.04471429560200781</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -3482,7 +3436,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_18</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_29</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3491,7 +3445,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.03284508482281291</v>
+        <v>0.005023835393138279</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
@@ -3505,7 +3459,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_18</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_58</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3514,7 +3468,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.04717306613477271</v>
+        <v>0.0439477505354445</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -3523,12 +3477,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AA6061_L7</t>
+          <t>AA6061_mean</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fz__mean_second_derivative_central</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_85</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3537,7 +3491,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.04885898370562864</v>
+        <v>0.006611325220967902</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
@@ -3551,7 +3505,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_85</t>
+          <t>Fz__ratio_beyond_r_sigma__r_1.5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3560,7 +3514,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.005901677914358639</v>
+        <v>0.009836784742956997</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
@@ -3574,7 +3528,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_84</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_90</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3583,7 +3537,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.009624178198925231</v>
+        <v>0.01696211528207828</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -3592,12 +3546,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AA6061_mean</t>
+          <t>Center_L1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fz__ratio_beyond_r_sigma__r_1.5</t>
+          <t>Fz__number_cwt_peaks__n_1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3606,7 +3560,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.02031691079139514</v>
+        <v>0.0005774121196087275</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -3615,12 +3569,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AA6061_mean</t>
+          <t>Center_L1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_11</t>
+          <t>Fz__absolute_sum_of_changes</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3629,7 +3583,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.02286541665847814</v>
+        <v>0.001956132488682174</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -3643,7 +3597,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fz__number_cwt_peaks__n_1</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3652,7 +3606,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0005774121196087275</v>
+        <v>0.00216349367169459</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -3666,7 +3620,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fz__absolute_sum_of_changes</t>
+          <t>Fz__cwt_coefficients__coeff_10__w_2__widths_(2, 5, 10, 20)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3675,7 +3629,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.001956132488682174</v>
+        <v>0.002773049543293998</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
@@ -3689,7 +3643,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_3</t>
+          <t>Fz__number_peaks__n_10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3698,7 +3652,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.00216349367169459</v>
+        <v>0.003208716269041967</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
@@ -3712,7 +3666,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fz__cwt_coefficients__coeff_10__w_2__widths_(2, 5, 10, 20)</t>
+          <t>Fz__fft_coefficient__attr_"abs"__coeff_4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3721,7 +3675,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.002773049543293998</v>
+        <v>0.003709587541269802</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
@@ -3730,12 +3684,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Center_L1</t>
+          <t>Center_L2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fz__number_peaks__n_10</t>
+          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_50__f_agg_"min"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3744,21 +3698,21 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.003208716269041967</v>
+        <v>1.235765132783516e-06</v>
       </c>
       <c r="E79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Center_L1</t>
+          <t>Center_L2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"abs"__coeff_4</t>
+          <t>Fz__ratio_beyond_r_sigma__r_1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3767,10 +3721,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.003709587541269802</v>
+        <v>1.863004407554395e-06</v>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3781,7 +3735,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_50__f_agg_"min"</t>
+          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_10__f_agg_"min"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3790,7 +3744,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5.73421219946122e-06</v>
+        <v>2.083037637640603e-06</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -3804,7 +3758,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_10__f_agg_"min"</t>
+          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_10__f_agg_"max"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3813,7 +3767,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>8.148972669184654e-06</v>
+        <v>3.474355962396629e-06</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -3827,7 +3781,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_21</t>
+          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_5__f_agg_"min"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3836,7 +3790,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>9.364876006112041e-06</v>
+        <v>4.013399745213739e-06</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -3850,7 +3804,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fz__ratio_beyond_r_sigma__r_1</t>
+          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_5__f_agg_"mean"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3859,7 +3813,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9.689539552052267e-06</v>
+        <v>4.312125413529109e-06</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -3868,12 +3822,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Center_L2</t>
+          <t>Center_L3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_20</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_75</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3882,7 +3836,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.320900853535554e-05</v>
+        <v>1.51399612766365e-05</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -3891,12 +3845,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Center_L2</t>
+          <t>Center_L3</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fz__agg_linear_trend__attr_"rvalue"__chunk_len_10__f_agg_"max"</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_98</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3905,7 +3859,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1.320900853535554e-05</v>
+        <v>1.62006380078292e-05</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -3919,7 +3873,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_75</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_67</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3928,7 +3882,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.51399612766365e-05</v>
+        <v>2.119493117076373e-05</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -3942,7 +3896,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_98</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_91</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3951,7 +3905,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.62006380078292e-05</v>
+        <v>2.119493117076373e-05</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -3965,7 +3919,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_67</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_65</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3974,7 +3928,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2.119493117076373e-05</v>
+        <v>2.421165944739525e-05</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -3983,12 +3937,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Center_L3</t>
+          <t>Center_L4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_91</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_59</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3997,21 +3951,21 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.119493117076373e-05</v>
+        <v>0.0008901266601693283</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Center_L3</t>
+          <t>Center_L4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_65</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_62</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4020,10 +3974,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2.421165944739525e-05</v>
+        <v>0.0009391003232972905</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4034,7 +3988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_59</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_61</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4043,7 +3997,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.0008901266601693283</v>
+        <v>0.001756803705397976</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -4057,7 +4011,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_62</t>
+          <t>Fz__fft_coefficient__attr_"imag"__coeff_11</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4066,7 +4020,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.0009391003232972905</v>
+        <v>0.001848415014283995</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -4080,7 +4034,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_61</t>
+          <t>Fz__skewness</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4089,7 +4043,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.001756803705397976</v>
+        <v>0.002755148022216944</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -4098,12 +4052,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Center_L4</t>
+          <t>Center_L5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"imag"__coeff_11</t>
+          <t>Fz__permutation_entropy__dimension_7__tau_1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4112,7 +4066,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.001848415014283995</v>
+        <v>0.004270527087453384</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -4121,12 +4075,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Center_L4</t>
+          <t>Center_L5</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fz__skewness</t>
+          <t>Fz__last_location_of_minimum</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4135,7 +4089,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.002755148022216944</v>
+        <v>0.007079007945331488</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -4158,7 +4112,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.004691948894620571</v>
+        <v>0.008476928659702853</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -4172,7 +4126,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fz__permutation_entropy__dimension_7__tau_1</t>
+          <t>Fz__permutation_entropy__dimension_6__tau_1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4181,7 +4135,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.007092748322482507</v>
+        <v>0.00925577906668543</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -4195,7 +4149,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_56</t>
+          <t>Fz__cwt_coefficients__coeff_14__w_2__widths_(2, 5, 10, 20)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4204,7 +4158,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.007092748322482507</v>
+        <v>0.01418824903613119</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -4213,12 +4167,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Center_L5</t>
+          <t>Center_L6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fz__permutation_entropy__dimension_6__tau_1</t>
+          <t>Fz__ar_coefficient__coeff_5__k_10</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4227,7 +4181,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.008858710323673007</v>
+        <v>0.001131452313836927</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -4236,12 +4190,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Center_L5</t>
+          <t>Center_L6</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fz__last_location_of_minimum</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.4__ql_0.0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4250,7 +4204,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.01097519605638211</v>
+        <v>0.002436692864139348</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -4264,7 +4218,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fz__ar_coefficient__coeff_5__k_10</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_9</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4273,7 +4227,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.001131452313836927</v>
+        <v>0.002824779881431954</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
@@ -4287,7 +4241,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.4__ql_0.0</t>
+          <t>Fz__fft_coefficient__attr_"real"__coeff_6</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4296,7 +4250,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.002436692864139348</v>
+        <v>0.002966185887462239</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
@@ -4310,7 +4264,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"real"__coeff_9</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_26</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4319,7 +4273,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.002824779881431954</v>
+        <v>0.004351708346663195</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
@@ -4328,12 +4282,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Center_L6</t>
+          <t>Center_L7</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_26</t>
+          <t>Fz__fft_coefficient__attr_"angle"__coeff_86</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4342,7 +4296,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.004351708346663195</v>
+        <v>0.0005314279578827338</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
@@ -4356,7 +4310,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fz__fft_coefficient__attr_"angle"__coeff_86</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4365,7 +4319,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.0005314279578827338</v>
+        <v>0.001635787161802717</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
@@ -4379,7 +4333,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.2</t>
+          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4388,7 +4342,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.001635787161802717</v>
+        <v>0.0043787815673931</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
@@ -4397,12 +4351,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Center_L7</t>
+          <t>Center_mean</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Fz__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.2</t>
+          <t>Fz__ratio_beyond_r_sigma__r_2.5</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4411,7 +4365,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.0043787815673931</v>
+        <v>0.0002541869131418665</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
@@ -4425,7 +4379,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fz__ratio_beyond_r_sigma__r_2.5</t>
+          <t>Fz__binned_entropy__max_bins_10</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4434,7 +4388,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.0005323925379789431</v>
+        <v>0.0007013100564113657</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -4448,7 +4402,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fz__binned_entropy__max_bins_10</t>
+          <t>Fz__kurtosis</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4460,29 +4414,6 @@
         <v>0.0009183429545967922</v>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Center_mean</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Fz__kurtosis</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>0.001472500678431794</v>
-      </c>
-      <c r="E111" t="b">
         <v>0</v>
       </c>
     </row>
